--- a/Data_processed/regional/rest_of_world_consolidated.xlsx
+++ b/Data_processed/regional/rest_of_world_consolidated.xlsx
@@ -436,37 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>industry</t>
+          <t>Industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>Unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>process</t>
+          <t>Process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>Total MJ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>carbon</t>
+          <t>Carbon MJ</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ced</t>
+          <t>CED MJ</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>region</t>
+          <t>Region</t>
         </is>
       </c>
     </row>

--- a/Data_processed/regional/rest_of_world_consolidated.xlsx
+++ b/Data_processed/regional/rest_of_world_consolidated.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon MJ</t>
+          <t>Carbon kg-CO2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">

--- a/Data_processed/regional/rest_of_world_consolidated.xlsx
+++ b/Data_processed/regional/rest_of_world_consolidated.xlsx
@@ -134,6 +134,51 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Data Processor</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Various (e.g. kg, kWh)</t>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Carbon footprint</t>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Cumulative energy demand</t>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Climate change impact</t>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <t>Data type: Categorical (text)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -436,37 +481,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industry</t>
+          <t>industry</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Unit</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Total MJ</t>
+          <t>carbon (kg CO2 eq)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Carbon kg-CO2</t>
+          <t>ced (MJ)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CED MJ</t>
+          <t>climate change (kg CO2 eq)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Region</t>
+          <t>region</t>
         </is>
       </c>
     </row>
@@ -487,13 +532,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.00061350126203</v>
+        <v>0.002456227733333333</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002456227733333333</v>
+        <v>1.2180735</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2180735</v>
+        <v>6.8486147e-08</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -518,13 +563,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.040473950345</v>
+        <v>0.2002403266666667</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2002403266666667</v>
+        <v>2.7140389</v>
       </c>
       <c r="F3" t="n">
-        <v>2.7140389</v>
+        <v>5.5832315e-06</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -549,13 +594,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.028149281375</v>
+        <v>0.1237401733333333</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1237401733333333</v>
+        <v>2.3437496</v>
       </c>
       <c r="F4" t="n">
-        <v>2.3437496</v>
+        <v>3.4502044e-06</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -580,13 +625,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.01221047674</v>
+        <v>0.05666686333333334</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05666686333333334</v>
+        <v>1.775766</v>
       </c>
       <c r="F5" t="n">
-        <v>1.775766</v>
+        <v>1.5800225e-06</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,13 +656,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.00898331588</v>
+        <v>0.04538790466666667</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04538790466666667</v>
+        <v>1.611065</v>
       </c>
       <c r="F6" t="n">
-        <v>1.611065</v>
+        <v>1.2655352e-06</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,13 +687,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.036148202574</v>
+        <v>0.1878088666666667</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1878088666666667</v>
+        <v>2.5880701</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5880701</v>
+        <v>5.2366095e-06</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -673,13 +718,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.00065599315103</v>
+        <v>0.002629633666666667</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002629633666666667</v>
+        <v>1.3104022</v>
       </c>
       <c r="F8" t="n">
-        <v>1.3104022</v>
+        <v>7.332116299999999e-08</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -704,13 +749,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.0422833565239</v>
+        <v>0.2137067866666667</v>
       </c>
       <c r="E9" t="n">
-        <v>0.2137067866666667</v>
+        <v>2.6712261</v>
       </c>
       <c r="F9" t="n">
-        <v>2.6712261</v>
+        <v>5.9587123e-06</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -735,13 +780,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.04210943881400001</v>
+        <v>0.2098115333333334</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2098115333333334</v>
+        <v>2.9987208</v>
       </c>
       <c r="F10" t="n">
-        <v>2.9987208</v>
+        <v>5.8501022e-06</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -766,13 +811,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.01154306549</v>
+        <v>0.05725304600000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.05725304600000001</v>
+        <v>1.6015459</v>
       </c>
       <c r="F11" t="n">
-        <v>1.6015459</v>
+        <v>1.5963668e-06</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -797,13 +842,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.047202776615</v>
+        <v>0.23518924</v>
       </c>
       <c r="E12" t="n">
-        <v>0.23518924</v>
+        <v>3.3614304</v>
       </c>
       <c r="F12" t="n">
-        <v>3.3614304</v>
+        <v>6.5577001e-06</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -828,13 +873,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.027684650347</v>
+        <v>0.1298517866666667</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1298517866666667</v>
+        <v>2.3031378</v>
       </c>
       <c r="F13" t="n">
-        <v>2.3031378</v>
+        <v>3.6206124e-06</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -859,13 +904,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.026313502032</v>
+        <v>0.08950985333333333</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08950985333333333</v>
+        <v>2.4357783</v>
       </c>
       <c r="F14" t="n">
-        <v>2.4357783</v>
+        <v>2.4957723e-06</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -890,13 +935,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.04241316641700001</v>
+        <v>0.2111473466666667</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2111473466666667</v>
+        <v>3.1367428</v>
       </c>
       <c r="F15" t="n">
-        <v>3.1367428</v>
+        <v>5.8873484e-06</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -921,13 +966,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.035769764764</v>
+        <v>0.1878338533333333</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1878338533333333</v>
+        <v>2.5691369</v>
       </c>
       <c r="F16" t="n">
-        <v>2.5691369</v>
+        <v>5.2373063e-06</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -952,13 +997,13 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.02795988527</v>
+        <v>0.1619151</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1619151</v>
+        <v>2.3086463</v>
       </c>
       <c r="F17" t="n">
-        <v>2.3086463</v>
+        <v>4.5146226e-06</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -983,13 +1028,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.038330737105</v>
+        <v>0.1935233</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1935233</v>
+        <v>2.4917582</v>
       </c>
       <c r="F18" t="n">
-        <v>2.4917582</v>
+        <v>5.3959431e-06</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1014,13 +1059,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0.0499191729</v>
+        <v>0.24880228</v>
       </c>
       <c r="E19" t="n">
-        <v>0.24880228</v>
+        <v>3.48945</v>
       </c>
       <c r="F19" t="n">
-        <v>3.48945</v>
+        <v>6.9372678e-06</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1045,13 +1090,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0.036713015828743</v>
+        <v>0.1855760466666667</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1855760466666667</v>
+        <v>2.3106304</v>
       </c>
       <c r="F20" t="n">
-        <v>2.3106304</v>
+        <v>5.1743527e-06</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1076,13 +1121,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.0425191979512</v>
+        <v>0.2182610866666667</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2182610866666667</v>
+        <v>2.7329075</v>
       </c>
       <c r="F21" t="n">
-        <v>2.7329075</v>
+        <v>6.0856982e-06</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1107,13 +1152,13 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.046107266891</v>
+        <v>0.2297866</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2297866</v>
+        <v>3.2966937</v>
       </c>
       <c r="F22" t="n">
-        <v>3.2966937</v>
+        <v>6.4070601e-06</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1138,13 +1183,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.0367731362585</v>
+        <v>0.1680454933333333</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1680454933333333</v>
+        <v>2.5865942</v>
       </c>
       <c r="F23" t="n">
-        <v>2.5865942</v>
+        <v>4.6855543e-06</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1169,13 +1214,13 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0.015295670936</v>
+        <v>0.049057318</v>
       </c>
       <c r="E24" t="n">
-        <v>0.049057318</v>
+        <v>3.0816143</v>
       </c>
       <c r="F24" t="n">
-        <v>3.0816143</v>
+        <v>1.3678482e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1200,13 +1245,13 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.0438516895138</v>
+        <v>0.2209291666666667</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2209291666666667</v>
+        <v>2.8496213</v>
       </c>
       <c r="F25" t="n">
-        <v>2.8496213</v>
+        <v>6.1600915e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1231,13 +1276,13 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.044385533944787</v>
+        <v>0.22047476</v>
       </c>
       <c r="E26" t="n">
-        <v>0.22047476</v>
+        <v>3.1491958</v>
       </c>
       <c r="F26" t="n">
-        <v>3.1491958</v>
+        <v>6.1474213e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1262,13 +1307,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.0006142134287</v>
+        <v>0.002464170333333333</v>
       </c>
       <c r="E27" t="n">
-        <v>0.002464170333333333</v>
+        <v>1.2320852</v>
       </c>
       <c r="F27" t="n">
-        <v>1.2320852</v>
+        <v>6.8707607e-08</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1293,13 +1338,13 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.028250238508</v>
+        <v>0.14103468</v>
       </c>
       <c r="E28" t="n">
-        <v>0.14103468</v>
+        <v>2.151084</v>
       </c>
       <c r="F28" t="n">
-        <v>2.151084</v>
+        <v>3.932421e-06</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1324,13 +1369,13 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.03170038093</v>
+        <v>0.1749151666666667</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1749151666666667</v>
+        <v>2.4057362</v>
       </c>
       <c r="F29" t="n">
-        <v>2.4057362</v>
+        <v>4.8770989e-06</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1355,13 +1400,13 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.0542559275951</v>
+        <v>0.2992879266666667</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2992879266666667</v>
+        <v>3.3915677</v>
       </c>
       <c r="F30" t="n">
-        <v>3.3915677</v>
+        <v>8.344941500000001e-06</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1386,13 +1431,13 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.006361668310000001</v>
+        <v>0.024998086</v>
       </c>
       <c r="E31" t="n">
-        <v>0.024998086</v>
+        <v>1.619529</v>
       </c>
       <c r="F31" t="n">
-        <v>1.619529</v>
+        <v>6.9701298e-07</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1417,13 +1462,13 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.04079039550000001</v>
+        <v>0.2114630866666667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2114630866666667</v>
+        <v>2.5608413</v>
       </c>
       <c r="F32" t="n">
-        <v>2.5608413</v>
+        <v>5.896152e-06</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1448,13 +1493,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.035574736634</v>
+        <v>0.17700208</v>
       </c>
       <c r="E33" t="n">
-        <v>0.17700208</v>
+        <v>2.8483234</v>
       </c>
       <c r="F33" t="n">
-        <v>2.8483234</v>
+        <v>4.9352876e-06</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1479,13 +1524,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.01780446255</v>
+        <v>0.08684753333333334</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08684753333333334</v>
+        <v>2.0878038</v>
       </c>
       <c r="F34" t="n">
-        <v>2.0878038</v>
+        <v>2.4215397e-06</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1510,13 +1555,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.03129347785</v>
+        <v>0.1703549533333333</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1703549533333333</v>
+        <v>2.6325083</v>
       </c>
       <c r="F35" t="n">
-        <v>2.6325083</v>
+        <v>4.7499481e-06</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1541,13 +1586,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.01598750275</v>
+        <v>0.07992203333333334</v>
       </c>
       <c r="E36" t="n">
-        <v>0.07992203333333334</v>
+        <v>1.7224963</v>
       </c>
       <c r="F36" t="n">
-        <v>1.7224963</v>
+        <v>2.2284384e-06</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1572,13 +1617,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.01289824467</v>
+        <v>0.04586284333333333</v>
       </c>
       <c r="E37" t="n">
-        <v>0.04586284333333333</v>
+        <v>1.7596995</v>
       </c>
       <c r="F37" t="n">
-        <v>1.7596995</v>
+        <v>1.2787778e-06</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1603,13 +1648,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.043104948051</v>
+        <v>0.2145760466666667</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2145760466666667</v>
+        <v>3.2009838</v>
       </c>
       <c r="F38" t="n">
-        <v>3.2009838</v>
+        <v>5.9829496e-06</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1634,13 +1679,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.0485221688534</v>
+        <v>0.2418012866666667</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2418012866666667</v>
+        <v>3.4236114</v>
       </c>
       <c r="F39" t="n">
-        <v>3.4236114</v>
+        <v>6.7420615e-06</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1665,13 +1710,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.0006072284009999999</v>
+        <v>0.002436147</v>
       </c>
       <c r="E40" t="n">
-        <v>0.002436147</v>
+        <v>1.2180735</v>
       </c>
       <c r="F40" t="n">
-        <v>1.2180735</v>
+        <v>6.7926242e-08</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1696,13 +1741,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.0006714478963999999</v>
+        <v>0.002589450666666667</v>
       </c>
       <c r="E41" t="n">
-        <v>0.002589450666666667</v>
+        <v>1.2180735</v>
       </c>
       <c r="F41" t="n">
-        <v>1.2180735</v>
+        <v>7.2200756e-08</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1727,13 +1772,13 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.04871189489200001</v>
+        <v>0.2412022133333334</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2412022133333334</v>
+        <v>3.5337389</v>
       </c>
       <c r="F42" t="n">
-        <v>3.5337389</v>
+        <v>6.7253576e-06</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1758,13 +1803,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.0157568731</v>
+        <v>0.09006256666666668</v>
       </c>
       <c r="E43" t="n">
-        <v>0.09006256666666668</v>
+        <v>1.7705801</v>
       </c>
       <c r="F43" t="n">
-        <v>1.7705801</v>
+        <v>2.5111834e-06</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1789,13 +1834,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.028234947714</v>
+        <v>0.1748711533333333</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1748711533333333</v>
+        <v>2.5674497</v>
       </c>
       <c r="F44" t="n">
-        <v>2.5674497</v>
+        <v>4.8758718e-06</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1820,13 +1865,13 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.032871976616</v>
+        <v>0.14967052</v>
       </c>
       <c r="E45" t="n">
-        <v>0.14967052</v>
+        <v>2.4873647</v>
       </c>
       <c r="F45" t="n">
-        <v>2.4873647</v>
+        <v>4.1732111e-06</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1851,13 +1896,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.01558608074</v>
+        <v>0.07959469333333334</v>
       </c>
       <c r="E46" t="n">
-        <v>0.07959469333333334</v>
+        <v>1.7605227</v>
       </c>
       <c r="F46" t="n">
-        <v>1.7605227</v>
+        <v>2.2193113e-06</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -1882,13 +1927,13 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.0471140915</v>
+        <v>0.2348214666666667</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2348214666666667</v>
+        <v>3.2933692</v>
       </c>
       <c r="F47" t="n">
-        <v>3.2933692</v>
+        <v>6.5474455e-06</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1913,13 +1958,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0.050116127338</v>
+        <v>0.2528469</v>
       </c>
       <c r="E48" t="n">
-        <v>0.2528469</v>
+        <v>3.5732608</v>
       </c>
       <c r="F48" t="n">
-        <v>3.5732608</v>
+        <v>7.0500425e-06</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1944,13 +1989,13 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.0227231333</v>
+        <v>0.1126583533333333</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1126583533333333</v>
+        <v>2.0850735</v>
       </c>
       <c r="F49" t="n">
-        <v>2.0850735</v>
+        <v>3.1412137e-06</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1975,13 +2020,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.002651346099</v>
+        <v>0.011935426</v>
       </c>
       <c r="E50" t="n">
-        <v>0.011935426</v>
+        <v>1.4884684</v>
       </c>
       <c r="F50" t="n">
-        <v>1.4884684</v>
+        <v>3.3279135e-07</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2006,13 +2051,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0.028667231173</v>
+        <v>0.14433936</v>
       </c>
       <c r="E51" t="n">
-        <v>0.14433936</v>
+        <v>2.1708368</v>
       </c>
       <c r="F51" t="n">
-        <v>2.1708368</v>
+        <v>4.0245644e-06</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2037,13 +2082,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.0469683742583</v>
+        <v>0.2330733866666667</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2330733866666667</v>
+        <v>3.3609746</v>
       </c>
       <c r="F52" t="n">
-        <v>3.3609746</v>
+        <v>6.4987044e-06</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2068,13 +2113,13 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.0006640464352</v>
+        <v>0.002541112866666667</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002541112866666667</v>
+        <v>1.2810606</v>
       </c>
       <c r="F53" t="n">
-        <v>1.2810606</v>
+        <v>7.0852969e-08</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
@@ -2099,13 +2144,13 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.0471140915</v>
+        <v>0.2348214666666667</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2348214666666667</v>
+        <v>3.2933692</v>
       </c>
       <c r="F54" t="n">
-        <v>3.2933692</v>
+        <v>6.5474455e-06</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
@@ -2130,13 +2175,13 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.038312494471</v>
+        <v>0.19081826</v>
       </c>
       <c r="E55" t="n">
-        <v>0.19081826</v>
+        <v>2.9472492</v>
       </c>
       <c r="F55" t="n">
-        <v>2.9472492</v>
+        <v>5.3205195e-06</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
@@ -2161,13 +2206,13 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.040512765453</v>
+        <v>0.2109737466666667</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2109737466666667</v>
+        <v>2.7778383</v>
       </c>
       <c r="F56" t="n">
-        <v>2.7778383</v>
+        <v>5.8825079e-06</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
@@ -2192,13 +2237,13 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.00057454014176</v>
+        <v>0.002274275533333333</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002274275533333333</v>
+        <v>1.1185027</v>
       </c>
       <c r="F57" t="n">
-        <v>1.1185027</v>
+        <v>6.3412836e-08</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
@@ -2223,13 +2268,13 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.009661749920000001</v>
+        <v>0.04713170666666667</v>
       </c>
       <c r="E58" t="n">
-        <v>0.04713170666666667</v>
+        <v>1.5904362</v>
       </c>
       <c r="F58" t="n">
-        <v>1.5904362</v>
+        <v>1.314157e-06</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
@@ -2254,13 +2299,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.035363691878</v>
+        <v>0.17849834</v>
       </c>
       <c r="E59" t="n">
-        <v>0.17849834</v>
+        <v>2.3669913</v>
       </c>
       <c r="F59" t="n">
-        <v>2.3669913</v>
+        <v>4.9770074e-06</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2285,13 +2330,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.01732454588</v>
+        <v>0.07954115333333334</v>
       </c>
       <c r="E60" t="n">
-        <v>0.07954115333333334</v>
+        <v>2.5978148</v>
       </c>
       <c r="F60" t="n">
-        <v>2.5978148</v>
+        <v>2.2178183e-06</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2316,13 +2361,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.029194162682</v>
+        <v>0.14733876</v>
       </c>
       <c r="E61" t="n">
-        <v>0.14733876</v>
+        <v>2.2248853</v>
       </c>
       <c r="F61" t="n">
-        <v>2.2248853</v>
+        <v>4.1081956e-06</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2347,13 +2392,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.04710723732450001</v>
+        <v>0.23475324</v>
       </c>
       <c r="E62" t="n">
-        <v>0.23475324</v>
+        <v>3.3212741</v>
       </c>
       <c r="F62" t="n">
-        <v>3.3212741</v>
+        <v>6.5455432e-06</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2378,13 +2423,13 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>0.00797195234</v>
+        <v>0.021548668</v>
       </c>
       <c r="E63" t="n">
-        <v>0.021548668</v>
+        <v>2.3155434</v>
       </c>
       <c r="F63" t="n">
-        <v>2.3155434</v>
+        <v>6.0083403e-07</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
@@ -2409,13 +2454,13 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0.0006783678921</v>
+        <v>0.0026379642</v>
       </c>
       <c r="E64" t="n">
-        <v>0.0026379642</v>
+        <v>1.2365501</v>
       </c>
       <c r="F64" t="n">
-        <v>1.2365501</v>
+        <v>7.3553441e-08</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
@@ -2440,13 +2485,13 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0.02539440459</v>
+        <v>0.1257612533333334</v>
       </c>
       <c r="E65" t="n">
-        <v>0.1257612533333334</v>
+        <v>2.3372731</v>
       </c>
       <c r="F65" t="n">
-        <v>2.3372731</v>
+        <v>3.5065575e-06</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
@@ -2471,13 +2516,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.028586902811</v>
+        <v>0.1421657666666667</v>
       </c>
       <c r="E66" t="n">
-        <v>0.1421657666666667</v>
+        <v>2.3958966</v>
       </c>
       <c r="F66" t="n">
-        <v>2.3958966</v>
+        <v>3.9639588e-06</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2502,13 +2547,13 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0.01864421425</v>
+        <v>0.09083836666666667</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09083836666666667</v>
+        <v>1.9838373</v>
       </c>
       <c r="F67" t="n">
-        <v>1.9838373</v>
+        <v>2.5328147e-06</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
@@ -2533,13 +2578,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.0490026600085</v>
+        <v>0.2438157533333333</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2438157533333333</v>
+        <v>3.4586131</v>
       </c>
       <c r="F68" t="n">
-        <v>3.4586131</v>
+        <v>6.7982301e-06</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2564,13 +2609,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.030101322934</v>
+        <v>0.1498111733333333</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1498111733333333</v>
+        <v>2.4374803</v>
       </c>
       <c r="F69" t="n">
-        <v>2.4374803</v>
+        <v>4.177133e-06</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2595,13 +2640,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.02961683715</v>
+        <v>0.14873126</v>
       </c>
       <c r="E70" t="n">
-        <v>0.14873126</v>
+        <v>2.4790322</v>
       </c>
       <c r="F70" t="n">
-        <v>2.4790322</v>
+        <v>4.1470222e-06</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2626,13 +2671,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.0513082562</v>
+        <v>0.2557256133333333</v>
       </c>
       <c r="E71" t="n">
-        <v>0.2557256133333333</v>
+        <v>3.5865497</v>
       </c>
       <c r="F71" t="n">
-        <v>3.5865497</v>
+        <v>7.1303087e-06</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2657,13 +2702,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.009361384049999999</v>
+        <v>0.046894036</v>
       </c>
       <c r="E72" t="n">
-        <v>0.046894036</v>
+        <v>1.3711774</v>
       </c>
       <c r="F72" t="n">
-        <v>1.3711774</v>
+        <v>1.3075301e-06</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2688,13 +2733,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.030551454243</v>
+        <v>0.1540409333333334</v>
       </c>
       <c r="E73" t="n">
-        <v>0.1540409333333334</v>
+        <v>2.3604291</v>
       </c>
       <c r="F73" t="n">
-        <v>2.3604291</v>
+        <v>4.2950699e-06</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2719,13 +2764,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.01084285253</v>
+        <v>0.05364478200000001</v>
       </c>
       <c r="E74" t="n">
-        <v>0.05364478200000001</v>
+        <v>1.5487509</v>
       </c>
       <c r="F74" t="n">
-        <v>1.5487509</v>
+        <v>1.4957589e-06</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2750,13 +2795,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.047963367814</v>
+        <v>0.2390008933333333</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2390008933333333</v>
+        <v>3.3972759</v>
       </c>
       <c r="F75" t="n">
-        <v>3.3972759</v>
+        <v>6.663979e-06</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2781,13 +2826,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.04228945393</v>
+        <v>0.2107136666666667</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2107136666666667</v>
+        <v>3.0072046</v>
       </c>
       <c r="F76" t="n">
-        <v>3.0072046</v>
+        <v>5.8752562e-06</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -2812,13 +2857,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.019459351004</v>
+        <v>0.09385139333333334</v>
       </c>
       <c r="E77" t="n">
-        <v>0.09385139333333334</v>
+        <v>2.4551688</v>
       </c>
       <c r="F77" t="n">
-        <v>2.4551688</v>
+        <v>2.6168259e-06</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -2843,13 +2888,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.01762168635</v>
+        <v>0.08743087333333334</v>
       </c>
       <c r="E78" t="n">
-        <v>0.08743087333333334</v>
+        <v>2.0127596</v>
       </c>
       <c r="F78" t="n">
-        <v>2.0127596</v>
+        <v>2.4378048e-06</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -2874,13 +2919,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0.0513082562</v>
+        <v>0.2557256133333333</v>
       </c>
       <c r="E79" t="n">
-        <v>0.2557256133333333</v>
+        <v>3.5865497</v>
       </c>
       <c r="F79" t="n">
-        <v>3.5865497</v>
+        <v>7.1303087e-06</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -2905,13 +2950,13 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0.0490026600085</v>
+        <v>0.2438157533333333</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2438157533333333</v>
+        <v>3.4586131</v>
       </c>
       <c r="F80" t="n">
-        <v>3.4586131</v>
+        <v>6.7982301e-06</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
@@ -2936,13 +2981,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0.09156401763800001</v>
+        <v>0.45620088</v>
       </c>
       <c r="E81" t="n">
-        <v>0.45620088</v>
+        <v>6.726265</v>
       </c>
       <c r="F81" t="n">
-        <v>6.726265</v>
+        <v>1.2720091e-05</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -2967,13 +3012,13 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0.02588101399</v>
+        <v>0.12162094</v>
       </c>
       <c r="E82" t="n">
-        <v>0.12162094</v>
+        <v>3.1106799</v>
       </c>
       <c r="F82" t="n">
-        <v>3.1106799</v>
+        <v>3.3911145e-06</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
@@ -2998,13 +3043,13 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0.04613244063206</v>
+        <v>0.24339398</v>
       </c>
       <c r="E83" t="n">
-        <v>0.24339398</v>
+        <v>2.9039027</v>
       </c>
       <c r="F83" t="n">
-        <v>2.9039027</v>
+        <v>6.7864699e-06</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
@@ -3029,13 +3074,13 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0.0003600002533659</v>
+        <v>0.001443953733333334</v>
       </c>
       <c r="E84" t="n">
-        <v>0.001443953733333334</v>
+        <v>1.6154355</v>
       </c>
       <c r="F84" t="n">
-        <v>1.6154355</v>
+        <v>4.0261261e-08</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
@@ -3060,13 +3105,13 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0.045278374701</v>
+        <v>0.2720570533333334</v>
       </c>
       <c r="E85" t="n">
-        <v>0.2720570533333334</v>
+        <v>3.2965315</v>
       </c>
       <c r="F85" t="n">
-        <v>3.2965315</v>
+        <v>7.5856726e-06</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
@@ -3091,13 +3136,13 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0.040205609354</v>
+        <v>0.2324647733333333</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2324647733333333</v>
+        <v>3.0179716</v>
       </c>
       <c r="F86" t="n">
-        <v>3.0179716</v>
+        <v>6.4817347e-06</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
@@ -3122,13 +3167,13 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0.038997007022</v>
+        <v>0.1942726933333333</v>
       </c>
       <c r="E87" t="n">
-        <v>0.1942726933333333</v>
+        <v>2.5558295</v>
       </c>
       <c r="F87" t="n">
-        <v>2.5558295</v>
+        <v>5.4168382e-06</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
@@ -3153,13 +3198,13 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>0.0738351175152</v>
+        <v>0.3714427133333333</v>
       </c>
       <c r="E88" t="n">
-        <v>0.3714427133333333</v>
+        <v>4.8652909</v>
       </c>
       <c r="F88" t="n">
-        <v>4.8652909</v>
+        <v>1.0356808e-05</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
@@ -3184,13 +3229,13 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0.035869611716</v>
+        <v>0.1864836733333333</v>
       </c>
       <c r="E89" t="n">
-        <v>0.1864836733333333</v>
+        <v>2.3471013</v>
       </c>
       <c r="F89" t="n">
-        <v>2.3471013</v>
+        <v>5.1996596e-06</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
@@ -3215,13 +3260,13 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0.04455545499999999</v>
+        <v>0.2230885466666667</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2230885466666667</v>
+        <v>3.1258419</v>
       </c>
       <c r="F90" t="n">
-        <v>3.1258419</v>
+        <v>6.2203007e-06</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
@@ -3246,13 +3291,13 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0.026838947796</v>
+        <v>0.1450953733333333</v>
       </c>
       <c r="E91" t="n">
-        <v>0.1450953733333333</v>
+        <v>2.5010925</v>
       </c>
       <c r="F91" t="n">
-        <v>2.5010925</v>
+        <v>4.0456441e-06</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
@@ -3277,13 +3322,13 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.031035322036</v>
+        <v>0.1564080733333333</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1564080733333333</v>
+        <v>2.2104205</v>
       </c>
       <c r="F92" t="n">
-        <v>2.2104205</v>
+        <v>4.361072e-06</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
@@ -3308,13 +3353,13 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0.042687058317</v>
+        <v>0.23236076</v>
       </c>
       <c r="E93" t="n">
-        <v>0.23236076</v>
+        <v>2.7919501</v>
       </c>
       <c r="F93" t="n">
-        <v>2.7919501</v>
+        <v>6.4788345e-06</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -3339,13 +3384,13 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0.00359137404</v>
+        <v>0.016391224</v>
       </c>
       <c r="E94" t="n">
-        <v>0.016391224</v>
+        <v>2.5615127</v>
       </c>
       <c r="F94" t="n">
-        <v>2.5615127</v>
+        <v>4.5703081e-07</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -3370,13 +3415,13 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0.0445327267</v>
+        <v>0.22195568</v>
       </c>
       <c r="E95" t="n">
-        <v>0.22195568</v>
+        <v>3.1129267</v>
       </c>
       <c r="F95" t="n">
-        <v>3.1129267</v>
+        <v>6.1887133e-06</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -3401,13 +3446,13 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.046924218586</v>
+        <v>0.2595013866666667</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2595013866666667</v>
+        <v>3.0392704</v>
       </c>
       <c r="F96" t="n">
-        <v>3.0392704</v>
+        <v>7.2355872e-06</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -3432,13 +3477,13 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0.04324229669737</v>
+        <v>0.21710118</v>
       </c>
       <c r="E97" t="n">
-        <v>0.21710118</v>
+        <v>2.8692178</v>
       </c>
       <c r="F97" t="n">
-        <v>2.8692178</v>
+        <v>6.0533569e-06</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -3463,13 +3508,13 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0.00933725549</v>
+        <v>0.05049480466666667</v>
       </c>
       <c r="E98" t="n">
-        <v>0.05049480466666667</v>
+        <v>1.6738147</v>
       </c>
       <c r="F98" t="n">
-        <v>1.6738147</v>
+        <v>1.4079291e-06</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -3494,13 +3539,13 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0.01667443084</v>
+        <v>0.09149901333333334</v>
       </c>
       <c r="E99" t="n">
-        <v>0.09149901333333334</v>
+        <v>1.9121931</v>
       </c>
       <c r="F99" t="n">
-        <v>1.9121931</v>
+        <v>2.5512353e-06</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -3525,13 +3570,13 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0.042692666187</v>
+        <v>0.2125655666666667</v>
       </c>
       <c r="E100" t="n">
-        <v>0.2125655666666667</v>
+        <v>3.091278</v>
       </c>
       <c r="F100" t="n">
-        <v>3.091278</v>
+        <v>5.926892e-06</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -3556,13 +3601,13 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0.0005441937238999999</v>
+        <v>0.0021832574</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0021832574</v>
+        <v>1.0916287</v>
       </c>
       <c r="F101" t="n">
-        <v>1.0916287</v>
+        <v>6.087501e-08</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
@@ -3587,13 +3632,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.0172936433</v>
+        <v>0.08579724000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.08579724000000001</v>
+        <v>1.9975721</v>
       </c>
       <c r="F102" t="n">
-        <v>1.9975721</v>
+        <v>2.3922548e-06</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
@@ -3618,13 +3663,13 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.12293092444308</v>
+        <v>0.6185360266666666</v>
       </c>
       <c r="E103" t="n">
-        <v>0.6185360266666666</v>
+        <v>8.0184035</v>
       </c>
       <c r="F103" t="n">
-        <v>8.0184035</v>
+        <v>1.7246426e-05</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
@@ -3649,13 +3694,13 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0.0265075662688</v>
+        <v>0.1144228133333333</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1144228133333333</v>
+        <v>2.9064142</v>
       </c>
       <c r="F104" t="n">
-        <v>2.9064142</v>
+        <v>3.1904116e-06</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
@@ -3680,13 +3725,13 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.030563181458</v>
+        <v>0.1527360333333333</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1527360333333333</v>
+        <v>2.5529968</v>
       </c>
       <c r="F105" t="n">
-        <v>2.5529968</v>
+        <v>4.2586859e-06</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
@@ -3711,13 +3756,13 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.00371633799</v>
+        <v>0.016114448</v>
       </c>
       <c r="E106" t="n">
-        <v>0.016114448</v>
+        <v>1.3456226</v>
       </c>
       <c r="F106" t="n">
-        <v>1.3456226</v>
+        <v>4.4931357e-07</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
@@ -3742,13 +3787,13 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0.036843629046</v>
+        <v>0.1969254933333333</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1969254933333333</v>
+        <v>2.4946932</v>
       </c>
       <c r="F107" t="n">
-        <v>2.4946932</v>
+        <v>5.4908053e-06</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
@@ -3773,13 +3818,13 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0.04831019261199999</v>
+        <v>0.2406848866666667</v>
       </c>
       <c r="E108" t="n">
-        <v>0.2406848866666667</v>
+        <v>3.4586966</v>
       </c>
       <c r="F108" t="n">
-        <v>3.4586966</v>
+        <v>6.7109333e-06</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
@@ -3804,13 +3849,13 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0.031330495527</v>
+        <v>0.15506316</v>
       </c>
       <c r="E109" t="n">
-        <v>0.15506316</v>
+        <v>2.6916924</v>
       </c>
       <c r="F109" t="n">
-        <v>2.6916924</v>
+        <v>4.3235723e-06</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
@@ -3835,13 +3880,13 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0.036161594687</v>
+        <v>0.1798909133333333</v>
       </c>
       <c r="E110" t="n">
-        <v>0.1798909133333333</v>
+        <v>2.8760069</v>
       </c>
       <c r="F110" t="n">
-        <v>2.8760069</v>
+        <v>5.0158361e-06</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
@@ -3866,13 +3911,13 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0.039872396216</v>
+        <v>0.2042748933333333</v>
       </c>
       <c r="E111" t="n">
-        <v>0.2042748933333333</v>
+        <v>3.0370827</v>
       </c>
       <c r="F111" t="n">
-        <v>3.0370827</v>
+        <v>5.695726e-06</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
@@ -3897,13 +3942,13 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0.035045675183</v>
+        <v>0.17309596</v>
       </c>
       <c r="E112" t="n">
-        <v>0.17309596</v>
+        <v>2.5483552</v>
       </c>
       <c r="F112" t="n">
-        <v>2.5483552</v>
+        <v>4.8263747e-06</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
@@ -3928,13 +3973,13 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0.041028339703</v>
+        <v>0.2068721733333334</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2068721733333334</v>
+        <v>2.7253439</v>
       </c>
       <c r="F113" t="n">
-        <v>2.7253439</v>
+        <v>5.7681451e-06</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
@@ -3959,13 +4004,13 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0.050747428551</v>
+        <v>0.27945176</v>
       </c>
       <c r="E114" t="n">
-        <v>0.27945176</v>
+        <v>3.2926374</v>
       </c>
       <c r="F114" t="n">
-        <v>3.2926374</v>
+        <v>7.7918565e-06</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
@@ -3990,13 +4035,13 @@
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0.02387407596</v>
+        <v>0.1314808733333333</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1314808733333333</v>
+        <v>2.1911176</v>
       </c>
       <c r="F115" t="n">
-        <v>2.1911176</v>
+        <v>3.6660355e-06</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
@@ -4021,13 +4066,13 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0.0499191729</v>
+        <v>0.24880228</v>
       </c>
       <c r="E116" t="n">
-        <v>0.24880228</v>
+        <v>3.48945</v>
       </c>
       <c r="F116" t="n">
-        <v>3.48945</v>
+        <v>6.9372678e-06</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
@@ -4052,13 +4097,13 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0.043785221557</v>
+        <v>0.2382798066666666</v>
       </c>
       <c r="E117" t="n">
-        <v>0.2382798066666666</v>
+        <v>2.9981021</v>
       </c>
       <c r="F117" t="n">
-        <v>2.9981021</v>
+        <v>6.6438733e-06</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
@@ -4083,13 +4128,13 @@
         </is>
       </c>
       <c r="D118" t="n">
-        <v>0.00790208955</v>
+        <v>0.03910523</v>
       </c>
       <c r="E118" t="n">
-        <v>0.03910523</v>
+        <v>1.4487062</v>
       </c>
       <c r="F118" t="n">
-        <v>1.4487062</v>
+        <v>1.0903576e-06</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
@@ -4114,13 +4159,13 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0.02095073261</v>
+        <v>0.1080536466666667</v>
       </c>
       <c r="E119" t="n">
-        <v>0.1080536466666667</v>
+        <v>2.0623862</v>
       </c>
       <c r="F119" t="n">
-        <v>2.0623862</v>
+        <v>3.0128223e-06</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
@@ -4145,13 +4190,13 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0.003800509282</v>
+        <v>0.019373898</v>
       </c>
       <c r="E120" t="n">
-        <v>0.019373898</v>
+        <v>1.6864378</v>
       </c>
       <c r="F120" t="n">
-        <v>1.6864378</v>
+        <v>5.4019568e-07</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
@@ -4176,13 +4221,13 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0.0445327267</v>
+        <v>0.22195568</v>
       </c>
       <c r="E121" t="n">
-        <v>0.22195568</v>
+        <v>3.1129267</v>
       </c>
       <c r="F121" t="n">
-        <v>3.1129267</v>
+        <v>6.1887133e-06</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
@@ -4207,13 +4252,13 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0.00074341976102</v>
+        <v>0.002975512866666667</v>
       </c>
       <c r="E122" t="n">
-        <v>0.002975512866666667</v>
+        <v>1.475136</v>
       </c>
       <c r="F122" t="n">
-        <v>1.475136</v>
+        <v>8.2965194e-08</v>
       </c>
       <c r="G122" t="inlineStr">
         <is>
@@ -4238,13 +4283,13 @@
         </is>
       </c>
       <c r="D123" t="n">
-        <v>0.040071911231</v>
+        <v>0.21136594</v>
       </c>
       <c r="E123" t="n">
-        <v>0.21136594</v>
+        <v>2.8048126</v>
       </c>
       <c r="F123" t="n">
-        <v>2.8048126</v>
+        <v>5.8934433e-06</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
@@ -4269,13 +4314,13 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0.00616473555</v>
+        <v>0.02999489266666667</v>
       </c>
       <c r="E124" t="n">
-        <v>0.02999489266666667</v>
+        <v>1.7195039</v>
       </c>
       <c r="F124" t="n">
-        <v>1.7195039</v>
+        <v>8.363372e-07</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
@@ -4300,13 +4345,13 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0.019374488213</v>
+        <v>0.08415254666666667</v>
       </c>
       <c r="E125" t="n">
-        <v>0.08415254666666667</v>
+        <v>3.0929295</v>
       </c>
       <c r="F125" t="n">
-        <v>3.0929295</v>
+        <v>2.3463963e-06</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
@@ -4331,13 +4376,13 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0.069955391975</v>
+        <v>0.3611061066666667</v>
       </c>
       <c r="E126" t="n">
-        <v>0.3611061066666667</v>
+        <v>4.7883837</v>
       </c>
       <c r="F126" t="n">
-        <v>4.7883837</v>
+        <v>1.0068596e-05</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
@@ -4362,13 +4407,13 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0.033540283235</v>
+        <v>0.1693847</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1693847</v>
+        <v>2.3489092</v>
       </c>
       <c r="F127" t="n">
-        <v>2.3489092</v>
+        <v>4.7228949e-06</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
@@ -4393,13 +4438,13 @@
         </is>
       </c>
       <c r="D128" t="n">
-        <v>0.02454838025</v>
+        <v>0.13471054</v>
       </c>
       <c r="E128" t="n">
-        <v>0.13471054</v>
+        <v>2.2010885</v>
       </c>
       <c r="F128" t="n">
-        <v>2.2010885</v>
+        <v>3.7560874e-06</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
@@ -4424,13 +4469,13 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0.037476438028</v>
+        <v>0.1997937733333333</v>
       </c>
       <c r="E129" t="n">
-        <v>0.1997937733333333</v>
+        <v>2.7896833</v>
       </c>
       <c r="F129" t="n">
-        <v>2.7896833</v>
+        <v>5.5707805e-06</v>
       </c>
       <c r="G129" t="inlineStr">
         <is>
@@ -4455,13 +4500,13 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0.03961319907209999</v>
+        <v>0.20011478</v>
       </c>
       <c r="E130" t="n">
-        <v>0.20011478</v>
+        <v>2.5104419</v>
       </c>
       <c r="F130" t="n">
-        <v>2.5104419</v>
+        <v>5.579731e-06</v>
       </c>
       <c r="G130" t="inlineStr">
         <is>
@@ -4486,13 +4531,13 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0.03306054091799999</v>
+        <v>0.1497899466666667</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1497899466666667</v>
+        <v>2.680404</v>
       </c>
       <c r="F131" t="n">
-        <v>2.680404</v>
+        <v>4.1765412e-06</v>
       </c>
       <c r="G131" t="inlineStr">
         <is>
@@ -4517,13 +4562,13 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0.037921971918</v>
+        <v>0.1887126666666667</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1887126666666667</v>
+        <v>2.8960752</v>
       </c>
       <c r="F132" t="n">
-        <v>2.8960752</v>
+        <v>5.2618098e-06</v>
       </c>
       <c r="G132" t="inlineStr">
         <is>
@@ -4548,13 +4593,13 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0.01047250075</v>
+        <v>0.05323573866666667</v>
       </c>
       <c r="E133" t="n">
-        <v>0.05323573866666667</v>
+        <v>1.5593132</v>
       </c>
       <c r="F133" t="n">
-        <v>1.5593132</v>
+        <v>1.4843537e-06</v>
       </c>
       <c r="G133" t="inlineStr">
         <is>
@@ -4579,13 +4624,13 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0.032119812112</v>
+        <v>0.1604036666666667</v>
       </c>
       <c r="E134" t="n">
-        <v>0.1604036666666667</v>
+        <v>2.62664</v>
       </c>
       <c r="F134" t="n">
-        <v>2.62664</v>
+        <v>4.4724798e-06</v>
       </c>
       <c r="G134" t="inlineStr">
         <is>
@@ -4610,13 +4655,13 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0.0005336223907</v>
+        <v>0.002140846133333333</v>
       </c>
       <c r="E135" t="n">
-        <v>0.002140846133333333</v>
+        <v>1.0704231</v>
       </c>
       <c r="F135" t="n">
-        <v>1.0704231</v>
+        <v>5.969247199999999e-08</v>
       </c>
       <c r="G135" t="inlineStr">
         <is>
@@ -4641,13 +4686,13 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0.01687503535</v>
+        <v>0.08439026666666667</v>
       </c>
       <c r="E136" t="n">
-        <v>0.08439026666666667</v>
+        <v>1.7270102</v>
       </c>
       <c r="F136" t="n">
-        <v>1.7270102</v>
+        <v>2.3530246e-06</v>
       </c>
       <c r="G136" t="inlineStr">
         <is>
@@ -4672,13 +4717,13 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0.045542678634</v>
+        <v>0.22859718</v>
       </c>
       <c r="E137" t="n">
-        <v>0.22859718</v>
+        <v>2.9565625</v>
       </c>
       <c r="F137" t="n">
-        <v>2.9565625</v>
+        <v>6.3738959e-06</v>
       </c>
       <c r="G137" t="inlineStr">
         <is>
@@ -4703,13 +4748,13 @@
         </is>
       </c>
       <c r="D138" t="n">
-        <v>0.0477028162087</v>
+        <v>0.2438447266666667</v>
       </c>
       <c r="E138" t="n">
-        <v>0.2438447266666667</v>
+        <v>3.208614</v>
       </c>
       <c r="F138" t="n">
-        <v>3.208614</v>
+        <v>6.7990379e-06</v>
       </c>
       <c r="G138" t="inlineStr">
         <is>
@@ -4734,13 +4779,13 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0.037470109889601</v>
+        <v>0.1892805066666667</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1892805066666667</v>
+        <v>2.3658836</v>
       </c>
       <c r="F139" t="n">
-        <v>2.3658836</v>
+        <v>5.2776428e-06</v>
       </c>
       <c r="G139" t="inlineStr">
         <is>
@@ -4765,13 +4810,13 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0.033014902339</v>
+        <v>0.14493964</v>
       </c>
       <c r="E140" t="n">
-        <v>0.14493964</v>
+        <v>2.5590861</v>
       </c>
       <c r="F140" t="n">
-        <v>2.5590861</v>
+        <v>4.0413017e-06</v>
       </c>
       <c r="G140" t="inlineStr">
         <is>
@@ -4796,13 +4841,13 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0.02044462177</v>
+        <v>0.10380342</v>
       </c>
       <c r="E141" t="n">
-        <v>0.10380342</v>
+        <v>1.9235276</v>
       </c>
       <c r="F141" t="n">
-        <v>1.9235276</v>
+        <v>2.8943148e-06</v>
       </c>
       <c r="G141" t="inlineStr">
         <is>
@@ -4827,13 +4872,13 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0.0477258326</v>
+        <v>0.2378704466666667</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2378704466666667</v>
+        <v>3.3361312</v>
       </c>
       <c r="F142" t="n">
-        <v>3.3361312</v>
+        <v>6.6324593e-06</v>
       </c>
       <c r="G142" t="inlineStr">
         <is>
@@ -4858,13 +4903,13 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0.047689648664</v>
+        <v>0.2376167333333334</v>
       </c>
       <c r="E143" t="n">
-        <v>0.2376167333333334</v>
+        <v>3.3847067</v>
       </c>
       <c r="F143" t="n">
-        <v>3.3847067</v>
+        <v>6.625385e-06</v>
       </c>
       <c r="G143" t="inlineStr">
         <is>
@@ -4889,13 +4934,13 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0.0499191729</v>
+        <v>0.24880228</v>
       </c>
       <c r="E144" t="n">
-        <v>0.24880228</v>
+        <v>3.48945</v>
       </c>
       <c r="F144" t="n">
-        <v>3.48945</v>
+        <v>6.9372678e-06</v>
       </c>
       <c r="G144" t="inlineStr">
         <is>
@@ -4920,13 +4965,13 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0.0449481222</v>
+        <v>0.2240260533333334</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2240260533333334</v>
+        <v>3.1419636</v>
       </c>
       <c r="F145" t="n">
-        <v>3.1419636</v>
+        <v>6.2464408e-06</v>
       </c>
       <c r="G145" t="inlineStr">
         <is>
@@ -4951,13 +4996,13 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0.038312494471</v>
+        <v>0.19081826</v>
       </c>
       <c r="E146" t="n">
-        <v>0.19081826</v>
+        <v>2.9472492</v>
       </c>
       <c r="F146" t="n">
-        <v>2.9472492</v>
+        <v>5.3205195e-06</v>
       </c>
       <c r="G146" t="inlineStr">
         <is>
@@ -4982,13 +5027,13 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0.03067687779</v>
+        <v>0.1526633466666667</v>
       </c>
       <c r="E147" t="n">
-        <v>0.1526633466666667</v>
+        <v>2.4637562</v>
       </c>
       <c r="F147" t="n">
-        <v>2.4637562</v>
+        <v>4.2566592e-06</v>
       </c>
       <c r="G147" t="inlineStr">
         <is>
@@ -5013,13 +5058,13 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0.04768675389</v>
+        <v>0.2376335066666667</v>
       </c>
       <c r="E148" t="n">
-        <v>0.2376335066666667</v>
+        <v>3.4173729</v>
       </c>
       <c r="F148" t="n">
-        <v>3.4173729</v>
+        <v>6.6258528e-06</v>
       </c>
       <c r="G148" t="inlineStr">
         <is>
@@ -5044,13 +5089,13 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0.0399797366637</v>
+        <v>0.2009223</v>
       </c>
       <c r="E149" t="n">
-        <v>0.2009223</v>
+        <v>2.6430777</v>
       </c>
       <c r="F149" t="n">
-        <v>2.6430777</v>
+        <v>5.6022468e-06</v>
       </c>
       <c r="G149" t="inlineStr">
         <is>
@@ -5075,13 +5120,13 @@
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0.036665884814</v>
+        <v>0.1835923</v>
       </c>
       <c r="E150" t="n">
-        <v>0.1835923</v>
+        <v>2.8453081</v>
       </c>
       <c r="F150" t="n">
-        <v>2.8453081</v>
+        <v>5.1190404e-06</v>
       </c>
       <c r="G150" t="inlineStr">
         <is>
@@ -5106,13 +5151,13 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0.036677096664</v>
+        <v>0.2014907066666667</v>
       </c>
       <c r="E151" t="n">
-        <v>0.2014907066666667</v>
+        <v>2.7072301</v>
       </c>
       <c r="F151" t="n">
-        <v>2.7072301</v>
+        <v>5.6180955e-06</v>
       </c>
       <c r="G151" t="inlineStr">
         <is>
@@ -5137,13 +5182,13 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0.040412894762</v>
+        <v>0.2012347</v>
       </c>
       <c r="E152" t="n">
-        <v>0.2012347</v>
+        <v>2.9776627</v>
       </c>
       <c r="F152" t="n">
-        <v>2.9776627</v>
+        <v>5.6109575e-06</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
@@ -5168,13 +5213,13 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0.003164544959</v>
+        <v>0.01517243266666667</v>
       </c>
       <c r="E153" t="n">
-        <v>0.01517243266666667</v>
+        <v>1.3364973</v>
       </c>
       <c r="F153" t="n">
-        <v>1.3364973</v>
+        <v>4.2304768e-07</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
@@ -5199,13 +5244,13 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0.0349217394056</v>
+        <v>0.1753588133333333</v>
       </c>
       <c r="E154" t="n">
-        <v>0.1753588133333333</v>
+        <v>2.3018576</v>
       </c>
       <c r="F154" t="n">
-        <v>2.3018576</v>
+        <v>4.889469e-06</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
@@ -5230,13 +5275,13 @@
         </is>
       </c>
       <c r="D155" t="n">
-        <v>0.0445327267</v>
+        <v>0.22195568</v>
       </c>
       <c r="E155" t="n">
-        <v>0.22195568</v>
+        <v>3.1129267</v>
       </c>
       <c r="F155" t="n">
-        <v>3.1129267</v>
+        <v>6.1887133e-06</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
@@ -5261,13 +5306,13 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0.04225261502700001</v>
+        <v>0.2104517066666667</v>
       </c>
       <c r="E156" t="n">
-        <v>0.2104517066666667</v>
+        <v>3.0644359</v>
       </c>
       <c r="F156" t="n">
-        <v>3.0644359</v>
+        <v>5.8679519e-06</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
@@ -5292,13 +5337,13 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0.045453762692</v>
+        <v>0.2535074533333334</v>
       </c>
       <c r="E157" t="n">
-        <v>0.2535074533333334</v>
+        <v>3.0226644</v>
       </c>
       <c r="F157" t="n">
-        <v>3.0226644</v>
+        <v>7.0684604e-06</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
@@ -5323,13 +5368,13 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0.031967022128</v>
+        <v>0.1457934666666667</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1457934666666667</v>
+        <v>2.793495</v>
       </c>
       <c r="F158" t="n">
-        <v>2.793495</v>
+        <v>4.0651087e-06</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
@@ -5354,13 +5399,13 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0.04327451229630001</v>
+        <v>0.21564602</v>
       </c>
       <c r="E159" t="n">
-        <v>0.21564602</v>
+        <v>3.0571295</v>
       </c>
       <c r="F159" t="n">
-        <v>3.0571295</v>
+        <v>6.0127833e-06</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
@@ -5385,13 +5430,13 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0.033312430317</v>
+        <v>0.1774527666666667</v>
       </c>
       <c r="E160" t="n">
-        <v>0.1774527666666667</v>
+        <v>2.5838253</v>
       </c>
       <c r="F160" t="n">
-        <v>2.5838253</v>
+        <v>4.9478539e-06</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
@@ -5416,13 +5461,13 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.01888716787</v>
+        <v>0.09346737333333333</v>
       </c>
       <c r="E161" t="n">
-        <v>0.09346737333333333</v>
+        <v>2.035959</v>
       </c>
       <c r="F161" t="n">
-        <v>2.035959</v>
+        <v>2.6061184e-06</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
@@ -5447,13 +5492,13 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0.02408299626</v>
+        <v>0.1195696066666667</v>
       </c>
       <c r="E162" t="n">
-        <v>0.1195696066666667</v>
+        <v>2.2010317</v>
       </c>
       <c r="F162" t="n">
-        <v>2.2010317</v>
+        <v>3.3339179e-06</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
@@ -5478,13 +5523,13 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0.04343411401</v>
+        <v>0.2179598866666667</v>
       </c>
       <c r="E163" t="n">
-        <v>0.2179598866666667</v>
+        <v>2.9353063</v>
       </c>
       <c r="F163" t="n">
-        <v>2.9353063</v>
+        <v>6.0773e-06</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
@@ -5509,13 +5554,13 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0.039726779006</v>
+        <v>0.2016035533333334</v>
       </c>
       <c r="E164" t="n">
-        <v>0.2016035533333334</v>
+        <v>2.6946887</v>
       </c>
       <c r="F164" t="n">
-        <v>2.6946887</v>
+        <v>5.6212419e-06</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
@@ -5540,13 +5585,13 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0.00652209218</v>
+        <v>0.03495731333333334</v>
       </c>
       <c r="E165" t="n">
-        <v>0.03495731333333334</v>
+        <v>1.4496786</v>
       </c>
       <c r="F165" t="n">
-        <v>1.4496786</v>
+        <v>9.7470265e-07</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
@@ -5571,13 +5616,13 @@
         </is>
       </c>
       <c r="D166" t="n">
-        <v>0.029174826092</v>
+        <v>0.14683732</v>
       </c>
       <c r="E166" t="n">
-        <v>0.14683732</v>
+        <v>2.2373829</v>
       </c>
       <c r="F166" t="n">
-        <v>2.2373829</v>
+        <v>4.0942142e-06</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
@@ -5602,13 +5647,13 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0.034781875767</v>
+        <v>0.17619192</v>
       </c>
       <c r="E167" t="n">
-        <v>0.17619192</v>
+        <v>2.4883257</v>
       </c>
       <c r="F167" t="n">
-        <v>2.4883257</v>
+        <v>4.9126982e-06</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
@@ -5633,13 +5678,13 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0.09373901898999999</v>
+        <v>0.4724067933333334</v>
       </c>
       <c r="E168" t="n">
-        <v>0.4724067933333334</v>
+        <v>6.8102573</v>
       </c>
       <c r="F168" t="n">
-        <v>6.8102573</v>
+        <v>1.3171955e-05</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
@@ -5664,13 +5709,13 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0.039080328131</v>
+        <v>0.1946313466666667</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1946313466666667</v>
+        <v>2.8559634</v>
       </c>
       <c r="F169" t="n">
-        <v>2.8559634</v>
+        <v>5.4268384e-06</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
@@ -5695,13 +5740,13 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0.03610162754896</v>
+        <v>0.1824717266666667</v>
       </c>
       <c r="E170" t="n">
-        <v>0.1824717266666667</v>
+        <v>2.2741827</v>
       </c>
       <c r="F170" t="n">
-        <v>2.2741827</v>
+        <v>5.0877959e-06</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
@@ -5726,13 +5771,13 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.040127062631</v>
+        <v>0.2027803333333333</v>
       </c>
       <c r="E171" t="n">
-        <v>0.2027803333333333</v>
+        <v>2.5612198</v>
       </c>
       <c r="F171" t="n">
-        <v>2.5612198</v>
+        <v>5.6540537e-06</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
@@ -5757,13 +5802,13 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0.02740014416</v>
+        <v>0.16596986</v>
       </c>
       <c r="E172" t="n">
-        <v>0.16596986</v>
+        <v>2.5000612</v>
       </c>
       <c r="F172" t="n">
-        <v>2.5000612</v>
+        <v>4.62768e-06</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
@@ -5788,13 +5833,13 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0.040292846766664</v>
+        <v>0.2036714133333334</v>
       </c>
       <c r="E173" t="n">
-        <v>0.2036714133333334</v>
+        <v>2.5361122</v>
       </c>
       <c r="F173" t="n">
-        <v>2.5361122</v>
+        <v>5.6788994e-06</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
@@ -5819,13 +5864,13 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0.0499191729</v>
+        <v>0.24880228</v>
       </c>
       <c r="E174" t="n">
-        <v>0.24880228</v>
+        <v>3.48945</v>
       </c>
       <c r="F174" t="n">
-        <v>3.48945</v>
+        <v>6.9372678e-06</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
@@ -5850,13 +5895,13 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0.0017662537</v>
+        <v>0.004718358666666667</v>
       </c>
       <c r="E175" t="n">
-        <v>0.004718358666666667</v>
+        <v>1.334634</v>
       </c>
       <c r="F175" t="n">
-        <v>1.334634</v>
+        <v>1.3156036e-07</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
@@ -5881,13 +5926,13 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0.029901260143</v>
+        <v>0.08353221333333333</v>
       </c>
       <c r="E176" t="n">
-        <v>0.08353221333333333</v>
+        <v>2.9023767</v>
       </c>
       <c r="F176" t="n">
-        <v>2.9023767</v>
+        <v>2.3290998e-06</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
@@ -5912,13 +5957,13 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.032729707806</v>
+        <v>0.13866494</v>
       </c>
       <c r="E177" t="n">
-        <v>0.13866494</v>
+        <v>2.4452975</v>
       </c>
       <c r="F177" t="n">
-        <v>2.4452975</v>
+        <v>3.8663465e-06</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
@@ -5943,13 +5988,13 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0.029993621628</v>
+        <v>0.14169066</v>
       </c>
       <c r="E178" t="n">
-        <v>0.14169066</v>
+        <v>2.405454</v>
       </c>
       <c r="F178" t="n">
-        <v>2.405454</v>
+        <v>3.9507116e-06</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
@@ -5974,13 +6019,13 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0.0484810811314</v>
+        <v>0.24159538</v>
       </c>
       <c r="E179" t="n">
-        <v>0.24159538</v>
+        <v>3.4216749</v>
       </c>
       <c r="F179" t="n">
-        <v>3.4216749</v>
+        <v>6.7363202e-06</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -6005,13 +6050,13 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0.0075055815</v>
+        <v>0.02547041666666667</v>
       </c>
       <c r="E180" t="n">
-        <v>0.02547041666666667</v>
+        <v>1.9289181</v>
       </c>
       <c r="F180" t="n">
-        <v>1.9289181</v>
+        <v>7.101828e-07</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -6036,13 +6081,13 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0.036733227971</v>
+        <v>0.1863369466666667</v>
       </c>
       <c r="E181" t="n">
-        <v>0.1863369466666667</v>
+        <v>2.3875695</v>
       </c>
       <c r="F181" t="n">
-        <v>2.3875695</v>
+        <v>5.1955685e-06</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -6067,13 +6112,13 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0.038301414604</v>
+        <v>0.1907278733333334</v>
       </c>
       <c r="E182" t="n">
-        <v>0.1907278733333334</v>
+        <v>2.8192544</v>
       </c>
       <c r="F182" t="n">
-        <v>2.8192544</v>
+        <v>5.3179992e-06</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -6098,13 +6143,13 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.01361891854</v>
+        <v>0.06789790000000001</v>
       </c>
       <c r="E183" t="n">
-        <v>0.06789790000000001</v>
+        <v>2.0643304</v>
       </c>
       <c r="F183" t="n">
-        <v>2.0643304</v>
+        <v>1.8931736e-06</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -6129,13 +6174,13 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0.03041569885</v>
+        <v>0.1700223733333333</v>
       </c>
       <c r="E184" t="n">
-        <v>0.1700223733333333</v>
+        <v>2.3047181</v>
       </c>
       <c r="F184" t="n">
-        <v>2.3047181</v>
+        <v>4.740675e-06</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -6160,13 +6205,13 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0.0006335203781</v>
+        <v>0.002508557</v>
       </c>
       <c r="E185" t="n">
-        <v>0.002508557</v>
+        <v>1.2180735</v>
       </c>
       <c r="F185" t="n">
-        <v>1.2180735</v>
+        <v>6.994522599999999e-08</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -6191,13 +6236,13 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.03167851675</v>
+        <v>0.1550675066666667</v>
       </c>
       <c r="E186" t="n">
-        <v>0.1550675066666667</v>
+        <v>2.4995879</v>
       </c>
       <c r="F186" t="n">
-        <v>2.4995879</v>
+        <v>4.3236935e-06</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -6222,13 +6267,13 @@
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.04375018945299999</v>
+        <v>0.2183613333333333</v>
       </c>
       <c r="E187" t="n">
-        <v>0.2183613333333333</v>
+        <v>3.2550111</v>
       </c>
       <c r="F187" t="n">
-        <v>3.2550111</v>
+        <v>6.0884934e-06</v>
       </c>
       <c r="G187" t="inlineStr">
         <is>
@@ -6253,13 +6298,13 @@
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0.00691897302</v>
+        <v>0.03725992266666667</v>
       </c>
       <c r="E188" t="n">
-        <v>0.03725992266666667</v>
+        <v>1.4520126</v>
       </c>
       <c r="F188" t="n">
-        <v>1.4520126</v>
+        <v>1.0389055e-06</v>
       </c>
       <c r="G188" t="inlineStr">
         <is>
@@ -6284,13 +6329,13 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>0.01957497173</v>
+        <v>0.1070784</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1070784</v>
+        <v>2.0222814</v>
       </c>
       <c r="F189" t="n">
-        <v>2.0222814</v>
+        <v>2.9856299e-06</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -6315,13 +6360,13 @@
         </is>
       </c>
       <c r="D190" t="n">
-        <v>0.03647243011</v>
+        <v>0.1894763666666667</v>
       </c>
       <c r="E190" t="n">
-        <v>0.1894763666666667</v>
+        <v>2.6619677</v>
       </c>
       <c r="F190" t="n">
-        <v>2.6619677</v>
+        <v>5.2831038e-06</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -6346,13 +6391,13 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>0.0499191729</v>
+        <v>0.24880228</v>
       </c>
       <c r="E191" t="n">
-        <v>0.24880228</v>
+        <v>3.48945</v>
       </c>
       <c r="F191" t="n">
-        <v>3.48945</v>
+        <v>6.9372678e-06</v>
       </c>
       <c r="G191" t="inlineStr">
         <is>
@@ -6377,13 +6422,13 @@
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0.0518984622</v>
+        <v>0.25866726</v>
       </c>
       <c r="E192" t="n">
-        <v>0.25866726</v>
+        <v>3.6278063</v>
       </c>
       <c r="F192" t="n">
-        <v>3.6278063</v>
+        <v>7.2123296e-06</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -6408,13 +6453,13 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>0.028793057519</v>
+        <v>0.1543243333333333</v>
       </c>
       <c r="E193" t="n">
-        <v>0.1543243333333333</v>
+        <v>2.2942741</v>
       </c>
       <c r="F193" t="n">
-        <v>2.2942741</v>
+        <v>4.3029719e-06</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -6424,5 +6469,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>